--- a/data/JobPortalDatabase.xlsx
+++ b/data/JobPortalDatabase.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramjotsingh/Desktop/JobPortalBackend/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramjotsingh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEFC01B-8DEF-9941-B3BE-2F1D5FDE534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A010E3-7344-D640-A5BB-52682C8BFF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="780" windowWidth="34160" windowHeight="19900" activeTab="4" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
+    <workbookView xWindow="40" yWindow="780" windowWidth="34160" windowHeight="19900" activeTab="1" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Email</t>
   </si>
@@ -100,13 +100,35 @@
   </si>
   <si>
     <t>Experience2</t>
+  </si>
+  <si>
+    <t>paramjotsingh966@gmail.com</t>
+  </si>
+  <si>
+    <t>U#00001</t>
+  </si>
+  <si>
+    <t>Paramjot</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>9031398069</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>java,reactJs,networking,android</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +140,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,14 +170,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,14 +493,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5311400-6CFA-5F4B-9B42-E976C131D59F}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.83203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="49.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="46.83203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -478,28 +513,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DD86BD9D-C55D-C64E-817A-B3B336726EE4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B30EF7-6740-034B-B554-3754C1991891}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="54.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="23.5" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="34.5" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="32.5" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="34.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="54.1640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -523,6 +569,29 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -560,32 +629,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9435B3C0-622D-D74C-A082-303FBC3E8782}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" customWidth="1"/>
-    <col min="9" max="9" width="28.83203125" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="30.1640625" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" customWidth="1"/>
-    <col min="14" max="14" width="26.5" customWidth="1"/>
-    <col min="15" max="15" width="26" customWidth="1"/>
-    <col min="16" max="16" width="26.1640625" customWidth="1"/>
-    <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="18" max="18" width="26.5" customWidth="1"/>
-    <col min="19" max="19" width="24.5" customWidth="1"/>
-    <col min="20" max="20" width="26.1640625" customWidth="1"/>
-    <col min="21" max="21" width="22" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.1640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="29.83203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="false"/>
+    <col min="4" max="5" customWidth="true" width="29.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="27.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="28.1640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="24.83203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="28.83203125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="25.6640625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="30.1640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="26.83203125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="29.33203125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="26.5" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="26.0" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="26.1640625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="26.0" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="26.5" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="24.5" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="26.1640625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="22.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">

--- a/data/JobPortalDatabase.xlsx
+++ b/data/JobPortalDatabase.xlsx
@@ -3,25 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramjotsingh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A010E3-7344-D640-A5BB-52682C8BFF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC22EB-F452-A342-B30B-C98EAD2D16B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="780" windowWidth="34160" windowHeight="19900" activeTab="1" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
+    <workbookView xWindow="40" yWindow="780" windowWidth="34160" windowHeight="19900" activeTab="5" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
-    <sheet name="Companies" sheetId="3" r:id="rId3"/>
-    <sheet name="Jobs" sheetId="4" r:id="rId4"/>
-    <sheet name="Resume" sheetId="5" r:id="rId5"/>
+    <sheet name="Resume" sheetId="5" r:id="rId3"/>
+    <sheet name="Companies" sheetId="3" r:id="rId4"/>
+    <sheet name="Jobs" sheetId="4" r:id="rId5"/>
+    <sheet name="JobApplications" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Email</t>
   </si>
@@ -84,18 +85,6 @@
     <t>Link2</t>
   </si>
   <si>
-    <t>Project3</t>
-  </si>
-  <si>
-    <t>Link3</t>
-  </si>
-  <si>
-    <t>Project4</t>
-  </si>
-  <si>
-    <t>Link4</t>
-  </si>
-  <si>
     <t>Experience1</t>
   </si>
   <si>
@@ -121,13 +110,57 @@
   </si>
   <si>
     <t>java,reactJs,networking,android</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>CompanyId</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>ImageUrl</t>
+  </si>
+  <si>
+    <t>CompanyDescription</t>
+  </si>
+  <si>
+    <t>JobId</t>
+  </si>
+  <si>
+    <t>RoleTitle</t>
+  </si>
+  <si>
+    <t>RoleDescription</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>RequiredSkills</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Highest Degree</t>
+  </si>
+  <si>
+    <t>ApplicationStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -501,8 +534,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="49.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="46.83203125" collapsed="false"/>
+    <col min="1" max="1" width="49.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -515,7 +548,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1234</v>
@@ -533,19 +566,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B30EF7-6740-034B-B554-3754C1991891}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="23.5" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="34.5" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="32.5" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="34.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="54.1640625" collapsed="false"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -571,27 +604,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -600,64 +633,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7AE158-054B-4947-9A9C-33ECBA00D441}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9435B3C0-622D-D74C-A082-303FBC3E8782}">
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB8B4A1-5466-CC48-A629-335591466AFA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9435B3C0-622D-D74C-A082-303FBC3E8782}">
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.1640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="29.83203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="false"/>
-    <col min="4" max="5" customWidth="true" width="29.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="27.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="28.1640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="24.83203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="28.83203125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="25.6640625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="30.1640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="26.83203125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="29.33203125" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="26.5" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="26.0" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="26.1640625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="26.0" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="26.5" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="24.5" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="26.1640625" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="28.83203125" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.1640625" customWidth="1"/>
+    <col min="13" max="13" width="26.83203125" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" customWidth="1"/>
+    <col min="15" max="15" width="26.5" customWidth="1"/>
+    <col min="16" max="16" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="26.1640625" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -677,48 +678,156 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7AE158-054B-4947-9A9C-33ECBA00D441}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="3" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="90" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB8B4A1-5466-CC48-A629-335591466AFA}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FA5B83-BD6D-B949-BFEA-972A203D77FB}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/JobPortalDatabase.xlsx
+++ b/data/JobPortalDatabase.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramjotsingh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC22EB-F452-A342-B30B-C98EAD2D16B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901FD524-D949-AA46-88B1-E3B79B0B3EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="780" windowWidth="34160" windowHeight="19900" activeTab="5" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="11500" activeTab="5" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -22,26 +22,15 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
   <si>
     <t>Email</t>
   </si>
@@ -73,24 +62,6 @@
     <t>LinkedIn</t>
   </si>
   <si>
-    <t>Project1</t>
-  </si>
-  <si>
-    <t>Link1</t>
-  </si>
-  <si>
-    <t>Project2</t>
-  </si>
-  <si>
-    <t>Link2</t>
-  </si>
-  <si>
-    <t>Experience1</t>
-  </si>
-  <si>
-    <t>Experience2</t>
-  </si>
-  <si>
     <t>paramjotsingh966@gmail.com</t>
   </si>
   <si>
@@ -155,13 +126,334 @@
   </si>
   <si>
     <t>ApplicationStatus</t>
+  </si>
+  <si>
+    <t>C#00001</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>C#00002</t>
+  </si>
+  <si>
+    <t>Wipro</t>
+  </si>
+  <si>
+    <t>C#00003</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>C#00004</t>
+  </si>
+  <si>
+    <t>C#00005</t>
+  </si>
+  <si>
+    <t>C#00006</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihZcjyjewM7eVyNtDWkpvlmAPKStRKblvmdjvZM2aYukmBK4iDbPnJwLMtMV_GQbMHXe_cgKbwJK_023WewVSntxNYvYn0Y2Kw=s2560</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihZKTEssJR5wKY_a-FVtqHxoHhPpdU8orRMn8sUdWaIFCpN8fFdW3-iWSWt2va1EV4sSfSg846Gasy5fcW2UWymUXt55NRrxD80=s2560</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihYz2IXYUNxm79kVbn4b-mJlDSvhjxZn9dlj399MP8AVGrU0rpfDMxhDdl4ebPqgYYt_ER26LVOp_SrFxliaWw_ojI7IKfMppJM=s2560</t>
+  </si>
+  <si>
+    <t>With over four decades of experience in managing the systems and workings of global enterprises, we expertly steer clients, in more than 56 countries, as they navigate their digital transformation powered by cloud and AI. We enable them with an AI-first core, empower the business with agile digital at scale and drive continuous improvement with always-on learning through the transfer of digital skills, expertise, and ideas from our innovation ecosystem. We are deeply committed to being a well-governed, environmentally sustainable organization where diverse talent thrives in an inclusive workplace.</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihYqt5XdCvzuiBp6YHBFe9iUUsNF0J9D44vw-QSVVdivOLUlJXPPXb3ZAz21j3OOcJtr9MwlPxGG3PU80WCYqUwCyAxHdKhP_Q=s1600-rw-v1</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihavXmWbXy_W0AYMIhrBYbS-jzUskzrWGGDHcRBSrZYNmtdlS4Fn8GUy5fWbqiNijQr0knyIQ2bB8hRzAl1l27EIRYzHJ0FLPf4=s2560</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihawKA7wRNgtDqPEBgMYFfLW1ExozPOn-FFbkmezaRygojdTqVtGudsLoEC_EpOTWlf-ICtgXBdkBMrNhNxFqUhcn2EdlrbjUg=s1600-rw-v1</t>
+  </si>
+  <si>
+    <t>Wipro India Business, a part of Wipro Limited (NYSE: WIT, BSE: 507685, NSE: WIPRO) is a leading global end to end IT transformation, consulting and business process services provider and a pioneer in Indian Market with decades of experience. We harness the power of application, cognitive computing, hyper-automation, robotics, cloud, analytics and emerging technologies to help our clients adapt to the digital world and make them successful.</t>
+  </si>
+  <si>
+    <t>Tata Consultancy Services is an IT services, consulting and business solutions organization that has been partnering with many of the world’s largest businesses for the past 50 years. We believe innovation and collective knowledge can transform all our futures with greater purpose.</t>
+  </si>
+  <si>
+    <r>
+      <t>In June 2018, Accenture generated controversy over the amount the firm has been charging to recruit 7,500 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Customs and Border Protection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> officers. Under the $297 million contract, Accenture had been charging the US Government nearly $40,000 per hire, which is more than the annual salary of the average officer.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[34]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> According to a report published by the DHS Office of Inspector General in December 2018, Accenture had been paid $13.6M through the first ten months of the contract. They had hired two agents against a contract goal of 7,500 hires over 5 years. The report was issued as a 'management alert', indicating an issue requiring immediate attention, stating that "Accenture has already taken longer to deploy and delivered less capability than promised".</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[35]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> The contract was terminated in 2019.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[36]</t>
+    </r>
+  </si>
+  <si>
+    <t>Established in 1976 as one of India’s original IT garage start-ups, HCL is a pioneer of modern computing with many firsts to its credit, including the introduction of the 8-bit microprocessor-based computer in 1978 well before its global peers.</t>
+  </si>
+  <si>
+    <t>HCL</t>
+  </si>
+  <si>
+    <t>Tech Mahindra</t>
+  </si>
+  <si>
+    <t>ech Mahindra is a global consulting service and systems integrator that operates in over 70 countries, delivering solutions with a unique blend of digital innovation and robust, industry-strong processes. With our promise to help our customers “scale at speed," we design future state solutions for industry leaders and offer innovative digital experiences that enable them to transform and scale at speed. Our aim is to enable enterprises, associates, and society to Rise for a more equal world, future readiness, and value creation.</t>
+  </si>
+  <si>
+    <t>J#00001</t>
+  </si>
+  <si>
+    <t>Software Development Engineer Backend</t>
+  </si>
+  <si>
+    <t>A Software Development Engineer (SDE) specializing in backend development plays a critical role in building and maintaining the server-side components of web applications and services. Their work ensures that applications function smoothly, handle data efficiently, and are scalable. Here’s an in-depth description of the role</t>
+  </si>
+  <si>
+    <t>java, django</t>
+  </si>
+  <si>
+    <t>J#00002</t>
+  </si>
+  <si>
+    <t>Frontend Engineer</t>
+  </si>
+  <si>
+    <t>A Frontend Engineer is responsible for creating the visual and interactive elements of a website or web application. They ensure that users can easily navigate and interact with the digital interfaces.</t>
+  </si>
+  <si>
+    <t>javaScript, angularJs</t>
+  </si>
+  <si>
+    <t>J#00003</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>A Data Engineer plays a critical role in managing, optimizing, overseeing, and monitoring data retrieval, storage, and distribution across an organization. They ensure that data pipelines are scalable, secure, and efficient, enabling data scientists and analysts to derive insights from vast amounts of data</t>
+  </si>
+  <si>
+    <t>bigData</t>
+  </si>
+  <si>
+    <t>J#00004</t>
+  </si>
+  <si>
+    <t>Android Developer</t>
+  </si>
+  <si>
+    <t>An Android Developer specializes in creating applications for devices running the Android operating system. This role involves designing, building, and maintaining applications, ensuring they are functional, user-friendly, and efficient. Here’s an in-depth description of the role</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>1 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 yrs    </t>
+  </si>
+  <si>
+    <t>J#00005</t>
+  </si>
+  <si>
+    <t>6 LPA</t>
+  </si>
+  <si>
+    <t>5 LPA</t>
+  </si>
+  <si>
+    <t>8 LPA</t>
+  </si>
+  <si>
+    <t>6.5 LpA</t>
+  </si>
+  <si>
+    <t>Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>A Machine Learning Engineer designs, builds, and deploys machine learning models that enable computers to perform tasks without explicit programming. This role combines software engineering, data science, and advanced mathematical skills to create algorithms that learn from and make predictions on data.</t>
+  </si>
+  <si>
+    <t>9 LPA</t>
+  </si>
+  <si>
+    <t>aiML</t>
+  </si>
+  <si>
+    <t>J#00006</t>
+  </si>
+  <si>
+    <t>Network Engineer</t>
+  </si>
+  <si>
+    <t>A Network Engineer is responsible for designing, implementing, maintaining, and troubleshooting computer networks that support an organization's operations. They ensure network infrastructure is reliable, efficient, and secure, enabling seamless communication and data transfer across systems and locations.</t>
+  </si>
+  <si>
+    <t>7.5 LPA</t>
+  </si>
+  <si>
+    <t>networking</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>KR Puram, Bangalore</t>
+  </si>
+  <si>
+    <t>amankumar@gmail.com</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>java, javaScript</t>
+  </si>
+  <si>
+    <t>22 yrs</t>
+  </si>
+  <si>
+    <t>2 yrs</t>
+  </si>
+  <si>
+    <t>https://github.com/LuckySingh1234</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/paramjot-singh-lucky</t>
+  </si>
+  <si>
+    <t>U#00002</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Reddy</t>
+  </si>
+  <si>
+    <t>Marathalli, Bangalore</t>
+  </si>
+  <si>
+    <t>rahulreddy@gmail.com</t>
+  </si>
+  <si>
+    <t>23 yrs</t>
+  </si>
+  <si>
+    <t>B.Tech</t>
+  </si>
+  <si>
+    <t>U#00003</t>
+  </si>
+  <si>
+    <t>Nitin</t>
+  </si>
+  <si>
+    <t>WhiteField, Bangalore</t>
+  </si>
+  <si>
+    <t>nitinkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>U#00004</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Varthur, Bangalore</t>
+  </si>
+  <si>
+    <t>rajsingh@gmail.com</t>
+  </si>
+  <si>
+    <t>21 yrs</t>
+  </si>
+  <si>
+    <t>APPLIED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +477,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Proxima_novaregular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Basis-regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF424242"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2F2F34"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,10 +540,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,16 +875,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.83203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="49.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="46.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,9 +892,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1234</v>
@@ -570,18 +916,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="34.5" customWidth="1"/>
-    <col min="5" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="54.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="54.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -604,27 +950,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -634,31 +980,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9435B3C0-622D-D74C-A082-303FBC3E8782}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="28.83203125" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" customWidth="1"/>
-    <col min="13" max="13" width="26.83203125" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5" customWidth="1"/>
-    <col min="16" max="16" width="24.5" customWidth="1"/>
-    <col min="17" max="17" width="26.1640625" customWidth="1"/>
-    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="44.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -678,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -693,109 +1034,501 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="17">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>8852332525</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>9835445623</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>7899256605</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1"/>
+      <c r="D5">
+        <v>9934565220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{B431C306-E9A5-4DCB-87F3-CF91D9DE59E5}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{46FBDC8C-E2A0-44B3-AE12-5AA6F739B472}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{56E904FF-E84C-4A5A-9065-8068C2125CD5}"/>
+    <hyperlink ref="K2" r:id="rId4" xr:uid="{3C04BFF7-B991-4193-8948-960B56C89F23}"/>
+    <hyperlink ref="J3" r:id="rId5" xr:uid="{79377C4F-5F12-4689-BA9C-A63BE7BFB7D7}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{59829561-86BF-485C-86D9-EABFFD19C739}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{32837B42-E704-4661-A369-7663BD799AA6}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{E4A4E46C-6EF9-49AD-89EE-099BD05622B3}"/>
+    <hyperlink ref="J5" r:id="rId9" xr:uid="{E1B710A9-8B66-4A29-8906-2F0A8BA36EAD}"/>
+    <hyperlink ref="K4" r:id="rId10" xr:uid="{8DF87A08-8CEB-458D-851F-2FCE09463825}"/>
+    <hyperlink ref="K5" r:id="rId11" xr:uid="{F134FF9A-939E-421E-A79B-D9F275E487A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7AE158-054B-4947-9A9C-33ECBA00D441}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="3" width="33.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
-    <col min="5" max="5" width="90" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="55.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="154.5" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB8B4A1-5466-CC48-A629-335591466AFA}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="46.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="71.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.1640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -805,28 +1538,61 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FA5B83-BD6D-B949-BFEA-972A203D77FB}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/JobPortalDatabase.xlsx
+++ b/data/JobPortalDatabase.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
   <si>
     <t>Email</t>
   </si>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>APPLIED</t>
+  </si>
+  <si>
+    <t>aman@gmail.com</t>
+  </si>
+  <si>
+    <t>java,django,cpp,bigData,networking</t>
   </si>
 </sst>
 </file>
@@ -910,7 +916,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B30EF7-6740-034B-B554-3754C1991891}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -971,6 +977,29 @@
       </c>
       <c r="G2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/JobPortalDatabase.xlsx
+++ b/data/JobPortalDatabase.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramjotsingh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901FD524-D949-AA46-88B1-E3B79B0B3EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437DAD11-73E6-6941-8940-3B41FE7AF3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="11500" activeTab="5" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="11500" activeTab="4" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="125">
   <si>
     <t>Email</t>
   </si>
@@ -453,12 +453,32 @@
   <si>
     <t>java,django,cpp,bigData,networking</t>
   </si>
+  <si>
+    <t>J#00007</t>
+  </si>
+  <si>
+    <t>Full Stack Engineer</t>
+  </si>
+  <si>
+    <t>Full Stack Engineer develops end to end application where they own the project delivery from inception to execution.</t>
+  </si>
+  <si>
+    <t>12 LPA</t>
+  </si>
+  <si>
+    <t>java,reactJs</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -886,8 +906,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="49.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="46.83203125" collapsed="true"/>
+    <col min="1" max="1" width="49.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="46.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -924,13 +944,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="54.1640625" collapsed="true"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="54.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -979,7 +999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -1017,15 +1037,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="6" max="9" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="44.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="44.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1239,20 +1259,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7AE158-054B-4947-9A9C-33ECBA00D441}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="55.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="154.5" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="154.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="10.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1382,24 +1402,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB8B4A1-5466-CC48-A629-335591466AFA}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="46.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="71.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.1640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="46.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="71" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.83203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1421,8 +1441,11 @@
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1444,8 +1467,11 @@
       <c r="G2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1467,8 +1493,11 @@
       <c r="G3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1490,8 +1519,11 @@
       <c r="G4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1513,8 +1545,11 @@
       <c r="G5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1536,8 +1571,11 @@
       <c r="G6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1558,6 +1596,35 @@
       </c>
       <c r="G7" t="s">
         <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1569,15 +1636,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FA5B83-BD6D-B949-BFEA-972A203D77FB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.1640625" collapsed="true"/>
+    <col min="1" max="1" width="22.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1613,7 +1680,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>61</v>
       </c>

--- a/data/JobPortalDatabase.xlsx
+++ b/data/JobPortalDatabase.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramjotsingh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437DAD11-73E6-6941-8940-3B41FE7AF3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C7D33C-0DD6-BA41-A80A-8B63871CD0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="11500" activeTab="4" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="11500" activeTab="2" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
   <si>
     <t>Email</t>
   </si>
@@ -53,15 +53,6 @@
     <t>Interests</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>LinkedIn</t>
-  </si>
-  <si>
     <t>paramjotsingh966@gmail.com</t>
   </si>
   <si>
@@ -83,12 +74,6 @@
     <t>java,reactJs,networking,android</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Skills</t>
-  </si>
-  <si>
     <t>CompanyId</t>
   </si>
   <si>
@@ -120,9 +105,6 @@
   </si>
   <si>
     <t>Experience</t>
-  </si>
-  <si>
-    <t>Highest Degree</t>
   </si>
   <si>
     <t>ApplicationStatus</t>
@@ -373,112 +355,99 @@
     <t>Kumar</t>
   </si>
   <si>
-    <t>KR Puram, Bangalore</t>
-  </si>
-  <si>
-    <t>amankumar@gmail.com</t>
+    <t>2 yrs</t>
+  </si>
+  <si>
+    <t>U#00002</t>
+  </si>
+  <si>
+    <t>APPLIED</t>
+  </si>
+  <si>
+    <t>aman@gmail.com</t>
+  </si>
+  <si>
+    <t>java,django,cpp,bigData,networking</t>
+  </si>
+  <si>
+    <t>J#00007</t>
+  </si>
+  <si>
+    <t>Full Stack Engineer</t>
+  </si>
+  <si>
+    <t>Full Stack Engineer develops end to end application where they own the project delivery from inception to execution.</t>
+  </si>
+  <si>
+    <t>12 LPA</t>
+  </si>
+  <si>
+    <t>java,reactJs</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>InstitutionName</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>YearOfGraduation</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Responsibilities</t>
+  </si>
+  <si>
+    <t>Paramjot Singh</t>
+  </si>
+  <si>
+    <t>2024-06-05</t>
+  </si>
+  <si>
+    <t>Reva</t>
   </si>
   <si>
     <t>MCA</t>
   </si>
   <si>
-    <t>java, javaScript</t>
-  </si>
-  <si>
-    <t>22 yrs</t>
-  </si>
-  <si>
-    <t>2 yrs</t>
-  </si>
-  <si>
-    <t>https://github.com/LuckySingh1234</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/paramjot-singh-lucky</t>
-  </si>
-  <si>
-    <t>U#00002</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Reddy</t>
-  </si>
-  <si>
-    <t>Marathalli, Bangalore</t>
-  </si>
-  <si>
-    <t>rahulreddy@gmail.com</t>
-  </si>
-  <si>
-    <t>23 yrs</t>
-  </si>
-  <si>
-    <t>B.Tech</t>
-  </si>
-  <si>
-    <t>U#00003</t>
-  </si>
-  <si>
-    <t>Nitin</t>
-  </si>
-  <si>
-    <t>WhiteField, Bangalore</t>
-  </si>
-  <si>
-    <t>nitinkumar@gmail.com</t>
-  </si>
-  <si>
-    <t>U#00004</t>
-  </si>
-  <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>Varthur, Bangalore</t>
-  </si>
-  <si>
-    <t>rajsingh@gmail.com</t>
-  </si>
-  <si>
-    <t>21 yrs</t>
-  </si>
-  <si>
-    <t>APPLIED</t>
-  </si>
-  <si>
-    <t>aman@gmail.com</t>
-  </si>
-  <si>
-    <t>java,django,cpp,bigData,networking</t>
-  </si>
-  <si>
-    <t>J#00007</t>
-  </si>
-  <si>
-    <t>Full Stack Engineer</t>
-  </si>
-  <si>
-    <t>Full Stack Engineer develops end to end application where they own the project delivery from inception to execution.</t>
-  </si>
-  <si>
-    <t>12 LPA</t>
-  </si>
-  <si>
-    <t>java,reactJs</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>Frontend
+Backend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -566,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -577,12 +546,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -906,8 +869,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="46.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="49.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="46.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -920,7 +883,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1234</v>
@@ -944,13 +907,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="54.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="54.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -978,48 +941,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1029,23 +992,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9435B3C0-622D-D74C-A082-303FBC3E8782}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="44.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="44.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1053,213 +1016,81 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="17">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2">
-        <v>8852332525</v>
-      </c>
       <c r="E2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17.5" customHeight="1">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3">
-        <v>9835445623</v>
-      </c>
-      <c r="E3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4">
-        <v>7899256605</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>9934565220</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="J2" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="K2" t="s">
         <v>113</v>
       </c>
-      <c r="G5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" t="s">
-        <v>96</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{B431C306-E9A5-4DCB-87F3-CF91D9DE59E5}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{46FBDC8C-E2A0-44B3-AE12-5AA6F739B472}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{56E904FF-E84C-4A5A-9065-8068C2125CD5}"/>
-    <hyperlink ref="K2" r:id="rId4" xr:uid="{3C04BFF7-B991-4193-8948-960B56C89F23}"/>
-    <hyperlink ref="J3" r:id="rId5" xr:uid="{79377C4F-5F12-4689-BA9C-A63BE7BFB7D7}"/>
-    <hyperlink ref="F4" r:id="rId6" xr:uid="{59829561-86BF-485C-86D9-EABFFD19C739}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{32837B42-E704-4661-A369-7663BD799AA6}"/>
-    <hyperlink ref="F5" r:id="rId8" xr:uid="{E4A4E46C-6EF9-49AD-89EE-099BD05622B3}"/>
-    <hyperlink ref="J5" r:id="rId9" xr:uid="{E1B710A9-8B66-4A29-8906-2F0A8BA36EAD}"/>
-    <hyperlink ref="K4" r:id="rId10" xr:uid="{8DF87A08-8CEB-458D-851F-2FCE09463825}"/>
-    <hyperlink ref="K5" r:id="rId11" xr:uid="{F134FF9A-939E-421E-A79B-D9F275E487A1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7AE158-054B-4947-9A9C-33ECBA00D441}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
@@ -1267,131 +1098,131 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.1640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="154.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="55.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="154.5" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.75" customHeight="1">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1404,227 +1235,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB8B4A1-5466-CC48-A629-335591466AFA}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="46.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="71" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.83203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="46.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="71.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.1640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>74</v>
-      </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
         <v>96</v>
-      </c>
-      <c r="H8" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1642,53 +1473,53 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/JobPortalDatabase.xlsx
+++ b/data/JobPortalDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramjotsingh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C7D33C-0DD6-BA41-A80A-8B63871CD0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441E77F-02FD-8E43-920B-917878CA4281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="11500" activeTab="2" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="11500" activeTab="5" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
   <si>
     <t>Email</t>
   </si>
@@ -441,6 +441,9 @@
   <si>
     <t>Frontend
 Backend</t>
+  </si>
+  <si>
+    <t>ACCEPTED</t>
   </si>
 </sst>
 </file>
@@ -994,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9435B3C0-622D-D74C-A082-303FBC3E8782}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1048,7 +1051,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1467,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FA5B83-BD6D-B949-BFEA-972A203D77FB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1497,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/data/JobPortalDatabase.xlsx
+++ b/data/JobPortalDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramjotsingh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441E77F-02FD-8E43-920B-917878CA4281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECC8EB6-E1B4-F343-A962-0526DEC13258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="11500" activeTab="5" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="11500" activeTab="2" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
   <si>
     <t>Email</t>
   </si>
@@ -418,32 +418,60 @@
     <t>Paramjot Singh</t>
   </si>
   <si>
-    <t>2024-06-05</t>
-  </si>
-  <si>
-    <t>Reva</t>
-  </si>
-  <si>
     <t>MCA</t>
   </si>
   <si>
     <t>2024</t>
   </si>
   <si>
-    <t>Abc</t>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>ACCEPTED</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>Xploria</t>
+  </si>
+  <si>
+    <t>Frontend
+HTML
+CSS
+JavaScript
+Backend
+Java
+Apache Tomcat</t>
+  </si>
+  <si>
+    <t>1997-01-26</t>
+  </si>
+  <si>
+    <t>Reva University</t>
+  </si>
+  <si>
+    <t>SDE Internship</t>
+  </si>
+  <si>
+    <t>6 Months</t>
+  </si>
+  <si>
+    <t>Aman Kumar</t>
+  </si>
+  <si>
+    <t>1998-02-14</t>
+  </si>
+  <si>
+    <t>BCA</t>
   </si>
   <si>
     <t>Intern</t>
   </si>
   <si>
-    <t>3 Months</t>
-  </si>
-  <si>
     <t>Frontend
-Backend</t>
-  </si>
-  <si>
-    <t>ACCEPTED</t>
+React Js
+Angular Js</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9435B3C0-622D-D74C-A082-303FBC3E8782}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1009,7 +1037,7 @@
     <col min="4" max="5" customWidth="true" width="29.6640625" collapsed="true"/>
     <col min="6" max="9" customWidth="true" width="27.33203125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="44.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="55.1640625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="24.5" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
@@ -1059,31 +1087,66 @@
         <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
         <v>107</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" t="s">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" t="s">
-        <v>113</v>
+      <c r="K3" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FA5B83-BD6D-B949-BFEA-972A203D77FB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1500,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1522,7 +1585,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/JobPortalDatabase.xlsx
+++ b/data/JobPortalDatabase.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramjotsingh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECC8EB6-E1B4-F343-A962-0526DEC13258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B39677-AA59-5C46-914B-12F9DEC02503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="11500" activeTab="2" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="3" xr2:uid="{5D604037-1A9D-5843-9ABC-114ADD599002}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
   <si>
     <t>Email</t>
   </si>
@@ -137,15 +137,6 @@
     <t>C#00006</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihZcjyjewM7eVyNtDWkpvlmAPKStRKblvmdjvZM2aYukmBK4iDbPnJwLMtMV_GQbMHXe_cgKbwJK_023WewVSntxNYvYn0Y2Kw=s2560</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihZKTEssJR5wKY_a-FVtqHxoHhPpdU8orRMn8sUdWaIFCpN8fFdW3-iWSWt2va1EV4sSfSg846Gasy5fcW2UWymUXt55NRrxD80=s2560</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihYz2IXYUNxm79kVbn4b-mJlDSvhjxZn9dlj399MP8AVGrU0rpfDMxhDdl4ebPqgYYt_ER26LVOp_SrFxliaWw_ojI7IKfMppJM=s2560</t>
-  </si>
-  <si>
     <t>With over four decades of experience in managing the systems and workings of global enterprises, we expertly steer clients, in more than 56 countries, as they navigate their digital transformation powered by cloud and AI. We enable them with an AI-first core, empower the business with agile digital at scale and drive continuous improvement with always-on learning through the transfer of digital skills, expertise, and ideas from our innovation ecosystem. We are deeply committed to being a well-governed, environmentally sustainable organization where diverse talent thrives in an inclusive workplace.</t>
   </si>
   <si>
@@ -153,15 +144,6 @@
   </si>
   <si>
     <t>Infosys</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihYqt5XdCvzuiBp6YHBFe9iUUsNF0J9D44vw-QSVVdivOLUlJXPPXb3ZAz21j3OOcJtr9MwlPxGG3PU80WCYqUwCyAxHdKhP_Q=s1600-rw-v1</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihavXmWbXy_W0AYMIhrBYbS-jzUskzrWGGDHcRBSrZYNmtdlS4Fn8GUy5fWbqiNijQr0knyIQ2bB8hRzAl1l27EIRYzHJ0FLPf4=s2560</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihawKA7wRNgtDqPEBgMYFfLW1ExozPOn-FFbkmezaRygojdTqVtGudsLoEC_EpOTWlf-ICtgXBdkBMrNhNxFqUhcn2EdlrbjUg=s1600-rw-v1</t>
   </si>
   <si>
     <t>Wipro India Business, a part of Wipro Limited (NYSE: WIT, BSE: 507685, NSE: WIPRO) is a leading global end to end IT transformation, consulting and business process services provider and a pioneer in Indian Market with decades of experience. We harness the power of application, cognitive computing, hyper-automation, robotics, cloud, analytics and emerging technologies to help our clients adapt to the digital world and make them successful.</t>
@@ -361,9 +343,6 @@
     <t>U#00002</t>
   </si>
   <si>
-    <t>APPLIED</t>
-  </si>
-  <si>
     <t>aman@gmail.com</t>
   </si>
   <si>
@@ -473,12 +452,29 @@
 React Js
 Angular Js</t>
   </si>
+  <si>
+    <t>https://drive.google.com/drive-viewer/AKGpihauAzfQ7uBZzOvYzcw1JHEo1RmP6IFak5qZwGW7GvPyLT2UMACo-GcxQLvVAqJgyihDK1IgHvxlAlZP8BMDvWVhgze7H9jzRAE=s2560</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive-viewer/AKGpihaudcMv2m8SMfPCKPZcCSn0MVNIQdiHCTtuYPeqyM_W0UXswVDTJl7BSLp6wXevXQ2-zi6t7R_cqZ6SRdVohYRaenlF1nzdFA=s1600-rw-v1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive-viewer/AKGpihb39QOXeMm0OeWl301aooLPExP0M53OpCerK6lClWbmnJj_Z71Iz80Sfb4k_Ht0KJqF9whYMPFmj33FU9bzjMcSw6BS8Xt5Ckg=s2560</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive-viewer/AKGpihZNwtW3LDJmFUbYjyfU4WQd3pcpfxxySnUxR9gnUs1RytP6nZORPfYz0kDysPtuTSix3UbSLe4VQvf91scm0ZiXiKq4Lw87xg=s2560</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive-viewer/AKGpiha8CXoA-XIReWi3Nuv6kpkyleGdcxtg2mHvc2CoALl8zNlebtLH6ayvpR1NIN1bik3TfcOkDm7TG_sHCxQRsDv52MzGPqxoOgc=s2560</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive-viewer/AKGpihb5s0mdaSTxoKmxF8frxlnFmLeP1kN1xmoF7ycKyUt8hxCqq70UW7L_eX-gwbgNLaA3wB7X42gzp9tMT-06uc5eLGvhzZ-9ww=s1600-rw-v1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -900,8 +896,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="49.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="46.83203125" collapsed="true"/>
+    <col min="1" max="1" width="49.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="46.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -938,13 +934,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="54.1640625" collapsed="true"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="54.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -995,25 +991,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1025,21 +1021,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9435B3C0-622D-D74C-A082-303FBC3E8782}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="6" max="9" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="55.1640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="55.1640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1047,34 +1043,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1084,69 +1080,69 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" t="s">
         <v>114</v>
-      </c>
-      <c r="F2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1156,20 +1152,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7AE158-054B-4947-9A9C-33ECBA00D441}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="55.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="154.5" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="154.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="10.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1194,16 +1190,16 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
+      <c r="E2" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18">
@@ -1214,13 +1210,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1231,13 +1227,13 @@
         <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>36</v>
+      <c r="E4" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1245,16 +1241,16 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>41</v>
+      <c r="E5" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.75" customHeight="1">
@@ -1262,16 +1258,16 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>42</v>
+      <c r="E6" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1279,21 +1275,28 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>43</v>
+      <c r="E7" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{CCE5AD53-C0FB-1840-9898-C33323D32E88}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{C66C483E-A869-4E4A-A167-4D022BCC2EF7}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{66C81548-A7DB-C945-B97F-6B0298CB4C87}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{539E34F2-AED9-E744-B392-7F359FB8C8D4}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{BD761304-D02D-3148-A9AE-D007C36EF0B6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1307,13 +1310,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="46.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="71.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.1640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="46.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="71" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.83203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1339,189 +1342,189 @@
         <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FA5B83-BD6D-B949-BFEA-972A203D77FB}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1539,9 +1542,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.1640625" collapsed="true"/>
+    <col min="1" max="1" width="22.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1557,35 +1560,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
